--- a/dataout.xlsx
+++ b/dataout.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -23,40 +23,52 @@
     <t>Password</t>
   </si>
   <si>
+    <t>abc2@def.com</t>
+  </si>
+  <si>
+    <t>12346.0</t>
+  </si>
+  <si>
     <t>abc@def.com</t>
   </si>
   <si>
     <t>1234.0</t>
   </si>
   <si>
+    <t>abc1@def.com</t>
+  </si>
+  <si>
+    <t>12345.0</t>
+  </si>
+  <si>
     <t>mohamed.atiea</t>
   </si>
   <si>
     <t>45678.0</t>
   </si>
   <si>
+    <t>abc4@def.com</t>
+  </si>
+  <si>
+    <t>12348.0</t>
+  </si>
+  <si>
     <t>abc3@def.com</t>
   </si>
   <si>
     <t>12347.0</t>
   </si>
   <si>
-    <t>abc4@def.com</t>
-  </si>
-  <si>
-    <t>12348.0</t>
-  </si>
-  <si>
-    <t>abc1@def.com</t>
-  </si>
-  <si>
-    <t>12345.0</t>
-  </si>
-  <si>
-    <t>abc2@def.com</t>
-  </si>
-  <si>
-    <t>12346.0</t>
+    <t>rita.raouf</t>
+  </si>
+  <si>
+    <t>12367.0</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>12121.0</t>
   </si>
 </sst>
 </file>
@@ -108,80 +120,102 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>1.0</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
